--- a/Attribute DataSet.xlsx
+++ b/Attribute DataSet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="0" windowWidth="19500" windowHeight="8340"/>
+    <workbookView xWindow="990" yWindow="0" windowWidth="19500" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,11 +1065,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P511" sqref="P511"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23117,18 +23131,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
